--- a/results/FrequencyTables/26775808_sgRNA-9.xlsx
+++ b/results/FrequencyTables/26775808_sgRNA-9.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0072</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.9512</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0056</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0056</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0048</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0048</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0064</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0210526315789474</v>
+        <v>0.0048</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.0056</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.9448</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="V2">
-        <v>0.0421052631578947</v>
+        <v>0.0184</v>
       </c>
       <c r="W2">
-        <v>0.0105263157894737</v>
+        <v>0.0224</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9536</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0328</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0056</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.9568</v>
       </c>
       <c r="F3">
-        <v>0.0842105263157895</v>
+        <v>0.1248</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.9616</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0328</v>
       </c>
       <c r="J3">
-        <v>0.0736842105263158</v>
+        <v>0.0552</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.0048</v>
       </c>
       <c r="L3">
-        <v>0.105263157894737</v>
+        <v>0.2056</v>
       </c>
       <c r="M3">
-        <v>0.105263157894737</v>
+        <v>0.0736</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9992</v>
       </c>
       <c r="P3">
-        <v>0.905263157894737</v>
+        <v>0.9216</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.9944</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0072</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="X3">
-        <v>0.0105263157894737</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,46 +613,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0376</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0056</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.9552</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.9616</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0336</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0048</v>
       </c>
       <c r="L4">
-        <v>0.0421052631578947</v>
+        <v>0.0288</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="N4">
-        <v>0.989473684210526</v>
+        <v>0.9952</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.9976</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0048</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="V4">
-        <v>0.0315789473684211</v>
+        <v>0.0312</v>
       </c>
       <c r="W4">
-        <v>0.989473684210526</v>
+        <v>0.972</v>
       </c>
       <c r="X4">
-        <v>0.989473684210526</v>
+        <v>0.9928</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0104</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="F5">
-        <v>0.91578947368421</v>
+        <v>0.8672</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0288</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9656</v>
       </c>
       <c r="J5">
-        <v>0.926315789473684</v>
+        <v>0.9392</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9904</v>
       </c>
       <c r="L5">
-        <v>0.852631578947368</v>
+        <v>0.76</v>
       </c>
       <c r="M5">
-        <v>0.894736842105263</v>
+        <v>0.9176</v>
       </c>
       <c r="N5">
-        <v>0.0105263157894737</v>
+        <v>0.0024</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0736842105263158</v>
+        <v>0.0736</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.9968</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="V5">
-        <v>0.926315789473684</v>
+        <v>0.9432</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
     </row>
   </sheetData>
